--- a/OCP Ready Colo Site Assessment - 2020-A.xlsx
+++ b/OCP Ready Colo Site Assessment - 2020-A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Inflectiontech\Open Compute Project\OCP Projects\OCP Project - Facility Requirements for OCP Racks Checklist\Air Cooled\Current Revision Checklist\Current\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarkDansie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4950E675-D72F-4413-961B-9EED3394A345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7B5A8E-3F64-456D-AD75-AE7CED4B1372}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Revision, Licence &amp; Use" sheetId="1" r:id="rId1"/>
     <sheet name="CHECKLIST" sheetId="2" r:id="rId2"/>
     <sheet name="Site Assessment" sheetId="3" r:id="rId3"/>
-    <sheet name="Dropdown" sheetId="5" r:id="rId4"/>
+    <sheet name="Dropdown" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="A_Application_Delivery" localSheetId="2">#REF!</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="145">
   <si>
     <t>Revision History</t>
   </si>
@@ -457,6 +457,57 @@
   <si>
     <t>Acknowledgement Required,YES-Acknowledged by Submitter</t>
   </si>
+  <si>
+    <t>2. ≥2.7m (108in) H x ≥1.2m (48in) W unobstructed access and threshold free</t>
+  </si>
+  <si>
+    <t>2. ≥2.7m (108in) x ≥1.2m (48in) with threshold (notes required)</t>
+  </si>
+  <si>
+    <t>2.≥2.3m (90in) H  x ≥ .9m (36in) W unobstructed access and threshold free</t>
+  </si>
+  <si>
+    <t>2.≥2.3m (90in) H  x ≥ .9m (36in) W with threshold (notes required)</t>
+  </si>
+  <si>
+    <t>3. &lt;2.3m (90in) H or &lt;.9m (36in) W</t>
+  </si>
+  <si>
+    <t>Row 15</t>
+  </si>
+  <si>
+    <t>1. ≥2.7m (108in) H x ≥2.4m (96in) W x ≥2.4m (96in) D unobstructed access and threshold free</t>
+  </si>
+  <si>
+    <t>1. ≥2.4m (96in) H x ≥1.8m (72in) W unobstructed access and threshold free</t>
+  </si>
+  <si>
+    <t>2. ≥2.4m (96in) H x ≥1.8m (72in) W with threshold (notes required)</t>
+  </si>
+  <si>
+    <t>2. ≥2.3m (90in) H x ≥.9m (36in) W unobstructed access and threshold free</t>
+  </si>
+  <si>
+    <t>2. ≥2.3m (90in) H x ≥.9m (36in) W with thresholds (notes required)</t>
+  </si>
+  <si>
+    <t>Row 16</t>
+  </si>
+  <si>
+    <t>Row 17</t>
+  </si>
+  <si>
+    <t>2. ≥459kg (1012lb) (4.5kN) (notes required)</t>
+  </si>
+  <si>
+    <t>2. &lt;459kg (1012lb) (4.5kN) (notes required)</t>
+  </si>
+  <si>
+    <t>2. ≥567kg (1250lb) (5.56kN)</t>
+  </si>
+  <si>
+    <t>1. ≥680kg (1500lb) (6.67kN)</t>
+  </si>
 </sst>
 </file>
 
@@ -468,7 +519,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="175" formatCode="[$-809]dd\ mmmm\ yyyy;;"/>
+    <numFmt numFmtId="169" formatCode="[$-809]dd\ mmmm\ yyyy;;"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1360,7 +1411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1660,6 +1711,40 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1732,7 +1817,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1748,7 +1833,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,88 +1854,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1870,6 +1884,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
@@ -2172,41 +2224,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="124"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
     </row>
     <row r="2" spans="2:6" ht="15" customHeight="1">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
     </row>
     <row r="3" spans="2:6" ht="15" customHeight="1">
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1">
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
@@ -2215,11 +2267,11 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="131"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="2">
@@ -2228,11 +2280,11 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="131"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="4">
@@ -2241,11 +2293,11 @@
       <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="4">
@@ -2254,11 +2306,11 @@
       <c r="C9" s="6">
         <v>2.1</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="4">
@@ -2267,11 +2319,11 @@
       <c r="C10" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="4">
@@ -2280,11 +2332,11 @@
       <c r="C11" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="4">
@@ -2293,11 +2345,11 @@
       <c r="C12" s="6">
         <v>2.4</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="4">
@@ -2306,11 +2358,11 @@
       <c r="C13" s="6">
         <v>2020</v>
       </c>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="123"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="4">
@@ -2319,11 +2371,11 @@
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="123"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
     </row>
     <row r="15" spans="2:6" ht="15" customHeight="1">
       <c r="B15" s="7"/>
@@ -2367,7 +2419,7 @@
   <dimension ref="A1:E856"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2380,68 +2432,68 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="123"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="135"/>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="162"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="136"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="148"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="141" t="s">
+      <c r="C7" s="150"/>
+      <c r="D7" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="142"/>
+      <c r="E7" s="154"/>
     </row>
     <row r="8" spans="1:5" ht="9.75" customHeight="1">
       <c r="A8" s="14"/>
@@ -2451,94 +2503,94 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="17"/>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="132" t="s">
+      <c r="C10" s="137"/>
+      <c r="D10" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="123"/>
+      <c r="E10" s="135"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="132" t="s">
+      <c r="C11" s="137"/>
+      <c r="D11" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="123"/>
+      <c r="E11" s="135"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="135"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="132" t="s">
+      <c r="C13" s="137"/>
+      <c r="D13" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="123"/>
+      <c r="E13" s="135"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="135"/>
     </row>
     <row r="15" spans="1:5" ht="23.25" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="132" t="s">
+      <c r="C15" s="137"/>
+      <c r="D15" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="123"/>
+      <c r="E15" s="135"/>
     </row>
     <row r="16" spans="1:5" ht="21.75" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="135"/>
     </row>
     <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="19"/>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="132" t="s">
+      <c r="C17" s="135"/>
+      <c r="D17" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="123"/>
+      <c r="E17" s="135"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="14"/>
@@ -2586,7 +2638,7 @@
       <c r="B21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="175">
+      <c r="C21" s="127">
         <f>'Site Assessment'!C3</f>
         <v>0</v>
       </c>
@@ -2604,15 +2656,15 @@
       <c r="B22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="173">
+      <c r="C22" s="125">
         <f>'Site Assessment'!C10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="174">
+      <c r="D22" s="126">
         <f>'Site Assessment'!O10</f>
         <v>0</v>
       </c>
-      <c r="E22" s="174">
+      <c r="E22" s="126">
         <f>'Site Assessment'!AA10</f>
         <v>0</v>
       </c>
@@ -2650,10 +2702,10 @@
       <c r="C25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="124" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2668,7 +2720,7 @@
       <c r="D26" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="171" t="s">
+      <c r="E26" s="124" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6046,20 +6098,20 @@
     <mergeCell ref="D17:E17"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:E26">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:E28">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;Approval Needed&gt;">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="&lt;Approval Needed&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;Approval Needed&gt;",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;Approval Needed&gt;">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="&lt;Approval Needed&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;Approval Needed&gt;",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E5">
-    <cfRule type="containsBlanks" dxfId="0" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6109,9 +6161,9 @@
   </sheetPr>
   <dimension ref="A1:AK1026"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6152,466 +6204,466 @@
         <v>40</v>
       </c>
       <c r="B1" s="31"/>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="156"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="168"/>
       <c r="N1" s="32"/>
-      <c r="O1" s="159" t="s">
+      <c r="O1" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="156"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="168"/>
       <c r="Z1" s="32"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="156"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="157"/>
+      <c r="AG1" s="157"/>
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="157"/>
+      <c r="AJ1" s="157"/>
+      <c r="AK1" s="168"/>
     </row>
     <row r="2" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="155" t="str">
+      <c r="C2" s="167" t="str">
         <f>IF(SUM(E12:F12)=0,"COMPLETE-MEETS REQUIREMENTS",IF(E12&gt;0,"NOT COMPLETED","COMPLETE-DOES NOT MEET"))</f>
         <v>NOT COMPLETED</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="156"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="168"/>
       <c r="N2" s="32"/>
-      <c r="O2" s="155" t="str">
+      <c r="O2" s="167" t="str">
         <f>IF(SUM(Q12:R12)=0,"COMPLETE-MEETS REQUIREMENTS",IF(Q12&gt;0,"NOT COMPLETED","COMPLETE-DOES NOT MEET"))</f>
         <v>NOT COMPLETED</v>
       </c>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="168"/>
       <c r="Z2" s="32"/>
-      <c r="AA2" s="155" t="str">
+      <c r="AA2" s="167" t="str">
         <f>IF(SUM(AC12:AD12)=0,"COMPLETE-MEETS REQUIREMENTS",IF(AC12&gt;0,"NOT COMPLETED","COMPLETE-DOES NOT MEET"))</f>
         <v>NOT COMPLETED</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="145"/>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="145"/>
-      <c r="AJ2" s="145"/>
-      <c r="AK2" s="156"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="168"/>
     </row>
     <row r="3" spans="1:37" ht="18" customHeight="1" thickTop="1">
       <c r="A3" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="158"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="170"/>
       <c r="N3" s="32"/>
-      <c r="O3" s="157"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="158"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="170"/>
       <c r="Z3" s="32"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="118"/>
-      <c r="AG3" s="118"/>
-      <c r="AH3" s="118"/>
-      <c r="AI3" s="118"/>
-      <c r="AJ3" s="118"/>
-      <c r="AK3" s="158"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="170"/>
     </row>
     <row r="4" spans="1:37" ht="18" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="31"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="163"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
+      <c r="L4" s="176"/>
+      <c r="M4" s="177"/>
       <c r="N4" s="32"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="152"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="164"/>
       <c r="Z4" s="32"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="152"/>
+      <c r="AA4" s="171"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="164"/>
     </row>
     <row r="5" spans="1:37" ht="39.75" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="31"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="152"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="164"/>
       <c r="N5" s="32"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="152"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="164"/>
       <c r="Z5" s="32"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="152"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="164"/>
     </row>
     <row r="6" spans="1:37" ht="18" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="152"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="164"/>
       <c r="N6" s="32"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="152"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="164"/>
       <c r="Z6" s="32"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="152"/>
+      <c r="AA6" s="171"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="164"/>
     </row>
     <row r="7" spans="1:37" ht="18" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="152"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="164"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="152"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
+      <c r="W7" s="134"/>
+      <c r="X7" s="134"/>
+      <c r="Y7" s="164"/>
       <c r="Z7" s="32"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="152"/>
+      <c r="AA7" s="171"/>
+      <c r="AB7" s="134"/>
+      <c r="AC7" s="134"/>
+      <c r="AD7" s="134"/>
+      <c r="AE7" s="134"/>
+      <c r="AF7" s="134"/>
+      <c r="AG7" s="134"/>
+      <c r="AH7" s="134"/>
+      <c r="AI7" s="134"/>
+      <c r="AJ7" s="134"/>
+      <c r="AK7" s="164"/>
     </row>
     <row r="8" spans="1:37" ht="18" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="152"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="164"/>
       <c r="N8" s="32"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="152"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="164"/>
       <c r="Z8" s="32"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="122"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="122"/>
-      <c r="AG8" s="122"/>
-      <c r="AH8" s="122"/>
-      <c r="AI8" s="122"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="152"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="134"/>
+      <c r="AD8" s="134"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="134"/>
+      <c r="AJ8" s="134"/>
+      <c r="AK8" s="164"/>
     </row>
     <row r="9" spans="1:37" ht="18" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="31"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="152"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="164"/>
       <c r="N9" s="32"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="152"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="134"/>
+      <c r="Y9" s="164"/>
       <c r="Z9" s="32"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="122"/>
-      <c r="AI9" s="122"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="152"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="134"/>
+      <c r="AE9" s="134"/>
+      <c r="AF9" s="134"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="134"/>
+      <c r="AJ9" s="134"/>
+      <c r="AK9" s="164"/>
     </row>
     <row r="10" spans="1:37" ht="18" customHeight="1">
       <c r="A10" s="115" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="31"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="152"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="164"/>
       <c r="N10" s="32"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="152"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="164"/>
       <c r="Z10" s="32"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="122"/>
-      <c r="AD10" s="122"/>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="122"/>
-      <c r="AI10" s="122"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="152"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="134"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="134"/>
+      <c r="AJ10" s="134"/>
+      <c r="AK10" s="164"/>
     </row>
     <row r="11" spans="1:37" ht="18" customHeight="1" thickBot="1">
       <c r="A11" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="31"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="154"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="166"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="149"/>
-      <c r="T11" s="149"/>
-      <c r="U11" s="149"/>
-      <c r="V11" s="149"/>
-      <c r="W11" s="149"/>
-      <c r="X11" s="149"/>
-      <c r="Y11" s="154"/>
+      <c r="O11" s="165"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="161"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="161"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="166"/>
       <c r="Z11" s="32"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="149"/>
-      <c r="AC11" s="149"/>
-      <c r="AD11" s="149"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="149"/>
-      <c r="AG11" s="149"/>
-      <c r="AH11" s="149"/>
-      <c r="AI11" s="149"/>
-      <c r="AJ11" s="149"/>
-      <c r="AK11" s="154"/>
+      <c r="AA11" s="165"/>
+      <c r="AB11" s="161"/>
+      <c r="AC11" s="161"/>
+      <c r="AD11" s="161"/>
+      <c r="AE11" s="161"/>
+      <c r="AF11" s="161"/>
+      <c r="AG11" s="161"/>
+      <c r="AH11" s="161"/>
+      <c r="AI11" s="161"/>
+      <c r="AJ11" s="161"/>
+      <c r="AK11" s="166"/>
     </row>
     <row r="12" spans="1:37" ht="33" thickTop="1" thickBot="1">
       <c r="A12" s="33" t="s">
@@ -6740,7 +6792,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="51"/>
-      <c r="E14" s="164">
+      <c r="E14" s="117">
         <f>COUNTIF(C14,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -6768,7 +6820,7 @@
         <v>58</v>
       </c>
       <c r="P14" s="51"/>
-      <c r="Q14" s="164">
+      <c r="Q14" s="117">
         <f>COUNTIF(O14,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -6796,7 +6848,7 @@
         <v>58</v>
       </c>
       <c r="AB14" s="51"/>
-      <c r="AC14" s="164">
+      <c r="AC14" s="117">
         <f>COUNTIF(AA14,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -6820,7 +6872,7 @@
       <c r="AJ14" s="54"/>
       <c r="AK14" s="57"/>
     </row>
-    <row r="15" spans="1:37" ht="32.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:37" ht="25.5" customHeight="1" thickBot="1">
       <c r="A15" s="59" t="s">
         <v>62</v>
       </c>
@@ -6829,7 +6881,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="59"/>
-      <c r="E15" s="166">
+      <c r="E15" s="119">
         <f t="shared" ref="E15:E19" si="5">COUNTIF(C15,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -6857,7 +6909,7 @@
         <v>58</v>
       </c>
       <c r="P15" s="59"/>
-      <c r="Q15" s="164">
+      <c r="Q15" s="117">
         <f t="shared" ref="Q15:Q61" si="6">COUNTIF(O15,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -6885,7 +6937,7 @@
         <v>58</v>
       </c>
       <c r="AB15" s="59"/>
-      <c r="AC15" s="164">
+      <c r="AC15" s="117">
         <f t="shared" ref="AC15:AC61" si="7">COUNTIF(AA15,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -6909,7 +6961,7 @@
       <c r="AJ15" s="63"/>
       <c r="AK15" s="55"/>
     </row>
-    <row r="16" spans="1:37" ht="33.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:37" ht="26.25" customHeight="1" thickBot="1">
       <c r="A16" s="59" t="s">
         <v>63</v>
       </c>
@@ -6918,7 +6970,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="59"/>
-      <c r="E16" s="167">
+      <c r="E16" s="120">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -6946,7 +6998,7 @@
         <v>58</v>
       </c>
       <c r="P16" s="59"/>
-      <c r="Q16" s="164">
+      <c r="Q16" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -6974,7 +7026,7 @@
         <v>58</v>
       </c>
       <c r="AB16" s="59"/>
-      <c r="AC16" s="164">
+      <c r="AC16" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7007,7 +7059,7 @@
         <v>58</v>
       </c>
       <c r="D17" s="59"/>
-      <c r="E17" s="168">
+      <c r="E17" s="121">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -7035,7 +7087,7 @@
         <v>58</v>
       </c>
       <c r="P17" s="59"/>
-      <c r="Q17" s="164">
+      <c r="Q17" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7059,11 +7111,11 @@
       <c r="X17" s="63"/>
       <c r="Y17" s="55"/>
       <c r="Z17" s="31"/>
-      <c r="AA17" s="64" t="s">
+      <c r="AA17" s="61" t="s">
         <v>58</v>
       </c>
       <c r="AB17" s="59"/>
-      <c r="AC17" s="164">
+      <c r="AC17" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7096,7 +7148,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="59"/>
-      <c r="E18" s="166">
+      <c r="E18" s="119">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -7124,7 +7176,7 @@
         <v>58</v>
       </c>
       <c r="P18" s="59"/>
-      <c r="Q18" s="164">
+      <c r="Q18" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7152,7 +7204,7 @@
         <v>58</v>
       </c>
       <c r="AB18" s="59"/>
-      <c r="AC18" s="164">
+      <c r="AC18" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7185,7 +7237,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="59"/>
-      <c r="E19" s="165">
+      <c r="E19" s="118">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -7213,7 +7265,7 @@
         <v>58</v>
       </c>
       <c r="P19" s="59"/>
-      <c r="Q19" s="164">
+      <c r="Q19" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7241,7 +7293,7 @@
         <v>58</v>
       </c>
       <c r="AB19" s="59"/>
-      <c r="AC19" s="164">
+      <c r="AC19" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7315,7 +7367,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="51"/>
-      <c r="E21" s="169">
+      <c r="E21" s="122">
         <f>COUNTIF(C21,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -7343,7 +7395,7 @@
         <v>58</v>
       </c>
       <c r="P21" s="51"/>
-      <c r="Q21" s="164">
+      <c r="Q21" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7371,7 +7423,7 @@
         <v>58</v>
       </c>
       <c r="AB21" s="51"/>
-      <c r="AC21" s="164">
+      <c r="AC21" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7404,7 +7456,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="59"/>
-      <c r="E22" s="168">
+      <c r="E22" s="121">
         <f t="shared" ref="E22:E24" si="12">COUNTIF(C22,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -7432,7 +7484,7 @@
         <v>58</v>
       </c>
       <c r="P22" s="59"/>
-      <c r="Q22" s="164">
+      <c r="Q22" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7460,7 +7512,7 @@
         <v>58</v>
       </c>
       <c r="AB22" s="59"/>
-      <c r="AC22" s="164">
+      <c r="AC22" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7493,7 +7545,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="59"/>
-      <c r="E23" s="166">
+      <c r="E23" s="119">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -7521,7 +7573,7 @@
         <v>58</v>
       </c>
       <c r="P23" s="59"/>
-      <c r="Q23" s="164">
+      <c r="Q23" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7549,7 +7601,7 @@
         <v>58</v>
       </c>
       <c r="AB23" s="59"/>
-      <c r="AC23" s="164">
+      <c r="AC23" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7582,7 +7634,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="59"/>
-      <c r="E24" s="165">
+      <c r="E24" s="118">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -7610,7 +7662,7 @@
         <v>58</v>
       </c>
       <c r="P24" s="59"/>
-      <c r="Q24" s="164">
+      <c r="Q24" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7638,7 +7690,7 @@
         <v>58</v>
       </c>
       <c r="AB24" s="59"/>
-      <c r="AC24" s="164">
+      <c r="AC24" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7712,7 +7764,7 @@
         <v>58</v>
       </c>
       <c r="D26" s="48"/>
-      <c r="E26" s="164">
+      <c r="E26" s="117">
         <f>COUNTIF(C26,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -7740,7 +7792,7 @@
         <v>58</v>
       </c>
       <c r="P26" s="48"/>
-      <c r="Q26" s="164">
+      <c r="Q26" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7768,7 +7820,7 @@
         <v>58</v>
       </c>
       <c r="AB26" s="48"/>
-      <c r="AC26" s="164">
+      <c r="AC26" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7801,7 +7853,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="73"/>
-      <c r="E27" s="166">
+      <c r="E27" s="119">
         <f t="shared" ref="E27:E29" si="16">COUNTIF(C27,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -7829,7 +7881,7 @@
         <v>58</v>
       </c>
       <c r="P27" s="73"/>
-      <c r="Q27" s="164">
+      <c r="Q27" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7857,7 +7909,7 @@
         <v>58</v>
       </c>
       <c r="AB27" s="73"/>
-      <c r="AC27" s="164">
+      <c r="AC27" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7890,7 +7942,7 @@
         <v>58</v>
       </c>
       <c r="D28" s="73"/>
-      <c r="E28" s="166">
+      <c r="E28" s="119">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
@@ -7918,7 +7970,7 @@
         <v>58</v>
       </c>
       <c r="P28" s="73"/>
-      <c r="Q28" s="164">
+      <c r="Q28" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -7946,7 +7998,7 @@
         <v>58</v>
       </c>
       <c r="AB28" s="73"/>
-      <c r="AC28" s="164">
+      <c r="AC28" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -7979,7 +8031,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="73"/>
-      <c r="E29" s="167">
+      <c r="E29" s="120">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
@@ -8007,7 +8059,7 @@
         <v>58</v>
       </c>
       <c r="P29" s="73"/>
-      <c r="Q29" s="164">
+      <c r="Q29" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -8035,7 +8087,7 @@
         <v>58</v>
       </c>
       <c r="AB29" s="73"/>
-      <c r="AC29" s="164">
+      <c r="AC29" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8109,7 +8161,7 @@
         <v>58</v>
       </c>
       <c r="D31" s="51"/>
-      <c r="E31" s="169">
+      <c r="E31" s="122">
         <f>COUNTIF(C31,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -8137,7 +8189,7 @@
         <v>58</v>
       </c>
       <c r="P31" s="51"/>
-      <c r="Q31" s="164">
+      <c r="Q31" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -8165,7 +8217,7 @@
         <v>58</v>
       </c>
       <c r="AB31" s="51"/>
-      <c r="AC31" s="164">
+      <c r="AC31" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8198,7 +8250,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="59"/>
-      <c r="E32" s="166">
+      <c r="E32" s="119">
         <f t="shared" ref="E32:E61" si="20">COUNTIF(C32,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -8226,7 +8278,7 @@
         <v>58</v>
       </c>
       <c r="P32" s="59"/>
-      <c r="Q32" s="164">
+      <c r="Q32" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -8254,7 +8306,7 @@
         <v>58</v>
       </c>
       <c r="AB32" s="59"/>
-      <c r="AC32" s="164">
+      <c r="AC32" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8287,7 +8339,7 @@
         <v>58</v>
       </c>
       <c r="D33" s="59"/>
-      <c r="E33" s="166">
+      <c r="E33" s="119">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -8315,7 +8367,7 @@
         <v>58</v>
       </c>
       <c r="P33" s="59"/>
-      <c r="Q33" s="164">
+      <c r="Q33" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -8343,7 +8395,7 @@
         <v>58</v>
       </c>
       <c r="AB33" s="59"/>
-      <c r="AC33" s="164">
+      <c r="AC33" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8376,7 +8428,7 @@
         <v>58</v>
       </c>
       <c r="D34" s="59"/>
-      <c r="E34" s="166">
+      <c r="E34" s="119">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -8404,7 +8456,7 @@
         <v>58</v>
       </c>
       <c r="P34" s="59"/>
-      <c r="Q34" s="164">
+      <c r="Q34" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -8432,7 +8484,7 @@
         <v>58</v>
       </c>
       <c r="AB34" s="59"/>
-      <c r="AC34" s="164">
+      <c r="AC34" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8465,7 +8517,7 @@
         <v>58</v>
       </c>
       <c r="D35" s="59"/>
-      <c r="E35" s="165">
+      <c r="E35" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -8493,7 +8545,7 @@
         <v>58</v>
       </c>
       <c r="P35" s="59"/>
-      <c r="Q35" s="164">
+      <c r="Q35" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -8521,7 +8573,7 @@
         <v>58</v>
       </c>
       <c r="AB35" s="59"/>
-      <c r="AC35" s="164">
+      <c r="AC35" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8595,7 +8647,7 @@
         <v>58</v>
       </c>
       <c r="D37" s="51"/>
-      <c r="E37" s="165">
+      <c r="E37" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -8623,7 +8675,7 @@
         <v>58</v>
       </c>
       <c r="P37" s="51"/>
-      <c r="Q37" s="164">
+      <c r="Q37" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -8651,7 +8703,7 @@
         <v>58</v>
       </c>
       <c r="AB37" s="51"/>
-      <c r="AC37" s="164">
+      <c r="AC37" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8684,7 +8736,7 @@
         <v>58</v>
       </c>
       <c r="D38" s="59"/>
-      <c r="E38" s="165">
+      <c r="E38" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -8712,7 +8764,7 @@
         <v>58</v>
       </c>
       <c r="P38" s="59"/>
-      <c r="Q38" s="164">
+      <c r="Q38" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -8740,7 +8792,7 @@
         <v>58</v>
       </c>
       <c r="AB38" s="59"/>
-      <c r="AC38" s="164">
+      <c r="AC38" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8773,7 +8825,7 @@
         <v>58</v>
       </c>
       <c r="D39" s="59"/>
-      <c r="E39" s="165">
+      <c r="E39" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -8801,7 +8853,7 @@
         <v>58</v>
       </c>
       <c r="P39" s="59"/>
-      <c r="Q39" s="164">
+      <c r="Q39" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -8829,7 +8881,7 @@
         <v>58</v>
       </c>
       <c r="AB39" s="59"/>
-      <c r="AC39" s="164">
+      <c r="AC39" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8862,7 +8914,7 @@
         <v>58</v>
       </c>
       <c r="D40" s="59"/>
-      <c r="E40" s="165">
+      <c r="E40" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -8890,7 +8942,7 @@
         <v>58</v>
       </c>
       <c r="P40" s="59"/>
-      <c r="Q40" s="164">
+      <c r="Q40" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -8918,7 +8970,7 @@
         <v>58</v>
       </c>
       <c r="AB40" s="59"/>
-      <c r="AC40" s="164">
+      <c r="AC40" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -8951,7 +9003,7 @@
         <v>58</v>
       </c>
       <c r="D41" s="59"/>
-      <c r="E41" s="165">
+      <c r="E41" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -8979,7 +9031,7 @@
         <v>58</v>
       </c>
       <c r="P41" s="59"/>
-      <c r="Q41" s="164">
+      <c r="Q41" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9007,7 +9059,7 @@
         <v>58</v>
       </c>
       <c r="AB41" s="59"/>
-      <c r="AC41" s="164">
+      <c r="AC41" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9040,7 +9092,7 @@
         <v>58</v>
       </c>
       <c r="D42" s="59"/>
-      <c r="E42" s="165">
+      <c r="E42" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9068,7 +9120,7 @@
         <v>58</v>
       </c>
       <c r="P42" s="59"/>
-      <c r="Q42" s="164">
+      <c r="Q42" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9096,7 +9148,7 @@
         <v>58</v>
       </c>
       <c r="AB42" s="59"/>
-      <c r="AC42" s="164">
+      <c r="AC42" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9129,7 +9181,7 @@
         <v>58</v>
       </c>
       <c r="D43" s="59"/>
-      <c r="E43" s="165">
+      <c r="E43" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9157,7 +9209,7 @@
         <v>58</v>
       </c>
       <c r="P43" s="59"/>
-      <c r="Q43" s="164">
+      <c r="Q43" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9185,7 +9237,7 @@
         <v>58</v>
       </c>
       <c r="AB43" s="59"/>
-      <c r="AC43" s="164">
+      <c r="AC43" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9218,7 +9270,7 @@
         <v>58</v>
       </c>
       <c r="D44" s="59"/>
-      <c r="E44" s="165">
+      <c r="E44" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9246,7 +9298,7 @@
         <v>58</v>
       </c>
       <c r="P44" s="59"/>
-      <c r="Q44" s="164">
+      <c r="Q44" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9274,7 +9326,7 @@
         <v>58</v>
       </c>
       <c r="AB44" s="59"/>
-      <c r="AC44" s="164">
+      <c r="AC44" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9307,7 +9359,7 @@
         <v>58</v>
       </c>
       <c r="D45" s="59"/>
-      <c r="E45" s="165">
+      <c r="E45" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9335,7 +9387,7 @@
         <v>58</v>
       </c>
       <c r="P45" s="59"/>
-      <c r="Q45" s="164">
+      <c r="Q45" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9363,7 +9415,7 @@
         <v>58</v>
       </c>
       <c r="AB45" s="59"/>
-      <c r="AC45" s="164">
+      <c r="AC45" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9437,7 +9489,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="51"/>
-      <c r="E47" s="165">
+      <c r="E47" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9465,7 +9517,7 @@
         <v>58</v>
       </c>
       <c r="P47" s="51"/>
-      <c r="Q47" s="164">
+      <c r="Q47" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9493,7 +9545,7 @@
         <v>58</v>
       </c>
       <c r="AB47" s="51"/>
-      <c r="AC47" s="164">
+      <c r="AC47" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9526,7 +9578,7 @@
         <v>58</v>
       </c>
       <c r="D48" s="59"/>
-      <c r="E48" s="165">
+      <c r="E48" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9554,7 +9606,7 @@
         <v>58</v>
       </c>
       <c r="P48" s="59"/>
-      <c r="Q48" s="164">
+      <c r="Q48" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9582,7 +9634,7 @@
         <v>58</v>
       </c>
       <c r="AB48" s="59"/>
-      <c r="AC48" s="164">
+      <c r="AC48" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9615,7 +9667,7 @@
         <v>58</v>
       </c>
       <c r="D49" s="59"/>
-      <c r="E49" s="165">
+      <c r="E49" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9643,7 +9695,7 @@
         <v>58</v>
       </c>
       <c r="P49" s="59"/>
-      <c r="Q49" s="164">
+      <c r="Q49" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9671,7 +9723,7 @@
         <v>58</v>
       </c>
       <c r="AB49" s="59"/>
-      <c r="AC49" s="164">
+      <c r="AC49" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9704,7 +9756,7 @@
         <v>58</v>
       </c>
       <c r="D50" s="59"/>
-      <c r="E50" s="165">
+      <c r="E50" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9732,7 +9784,7 @@
         <v>58</v>
       </c>
       <c r="P50" s="59"/>
-      <c r="Q50" s="164">
+      <c r="Q50" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9760,7 +9812,7 @@
         <v>58</v>
       </c>
       <c r="AB50" s="59"/>
-      <c r="AC50" s="164">
+      <c r="AC50" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9793,7 +9845,7 @@
         <v>58</v>
       </c>
       <c r="D51" s="59"/>
-      <c r="E51" s="165">
+      <c r="E51" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9821,7 +9873,7 @@
         <v>58</v>
       </c>
       <c r="P51" s="59"/>
-      <c r="Q51" s="164">
+      <c r="Q51" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9849,7 +9901,7 @@
         <v>58</v>
       </c>
       <c r="AB51" s="59"/>
-      <c r="AC51" s="164">
+      <c r="AC51" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9882,7 +9934,7 @@
         <v>58</v>
       </c>
       <c r="D52" s="59"/>
-      <c r="E52" s="165">
+      <c r="E52" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9910,7 +9962,7 @@
         <v>58</v>
       </c>
       <c r="P52" s="59"/>
-      <c r="Q52" s="164">
+      <c r="Q52" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -9938,7 +9990,7 @@
         <v>58</v>
       </c>
       <c r="AB52" s="59"/>
-      <c r="AC52" s="164">
+      <c r="AC52" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -9971,7 +10023,7 @@
         <v>58</v>
       </c>
       <c r="D53" s="59"/>
-      <c r="E53" s="165">
+      <c r="E53" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -9999,7 +10051,7 @@
         <v>58</v>
       </c>
       <c r="P53" s="59"/>
-      <c r="Q53" s="164">
+      <c r="Q53" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -10027,7 +10079,7 @@
         <v>58</v>
       </c>
       <c r="AB53" s="59"/>
-      <c r="AC53" s="164">
+      <c r="AC53" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -10060,7 +10112,7 @@
         <v>58</v>
       </c>
       <c r="D54" s="59"/>
-      <c r="E54" s="165">
+      <c r="E54" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -10088,7 +10140,7 @@
         <v>58</v>
       </c>
       <c r="P54" s="59"/>
-      <c r="Q54" s="164">
+      <c r="Q54" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -10116,7 +10168,7 @@
         <v>58</v>
       </c>
       <c r="AB54" s="59"/>
-      <c r="AC54" s="164">
+      <c r="AC54" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -10149,7 +10201,7 @@
         <v>58</v>
       </c>
       <c r="D55" s="59"/>
-      <c r="E55" s="165">
+      <c r="E55" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -10177,7 +10229,7 @@
         <v>58</v>
       </c>
       <c r="P55" s="59"/>
-      <c r="Q55" s="164">
+      <c r="Q55" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -10205,7 +10257,7 @@
         <v>58</v>
       </c>
       <c r="AB55" s="59"/>
-      <c r="AC55" s="164">
+      <c r="AC55" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -10238,7 +10290,7 @@
         <v>58</v>
       </c>
       <c r="D56" s="59"/>
-      <c r="E56" s="165">
+      <c r="E56" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -10266,7 +10318,7 @@
         <v>58</v>
       </c>
       <c r="P56" s="59"/>
-      <c r="Q56" s="164">
+      <c r="Q56" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -10294,7 +10346,7 @@
         <v>58</v>
       </c>
       <c r="AB56" s="59"/>
-      <c r="AC56" s="164">
+      <c r="AC56" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -10368,7 +10420,7 @@
         <v>58</v>
       </c>
       <c r="D58" s="51"/>
-      <c r="E58" s="165">
+      <c r="E58" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -10396,7 +10448,7 @@
         <v>58</v>
       </c>
       <c r="P58" s="51"/>
-      <c r="Q58" s="164">
+      <c r="Q58" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -10424,7 +10476,7 @@
         <v>58</v>
       </c>
       <c r="AB58" s="51"/>
-      <c r="AC58" s="164">
+      <c r="AC58" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -10457,7 +10509,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="59"/>
-      <c r="E59" s="165">
+      <c r="E59" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -10485,7 +10537,7 @@
         <v>58</v>
       </c>
       <c r="P59" s="59"/>
-      <c r="Q59" s="164">
+      <c r="Q59" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -10513,7 +10565,7 @@
         <v>58</v>
       </c>
       <c r="AB59" s="59"/>
-      <c r="AC59" s="164">
+      <c r="AC59" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -10546,7 +10598,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="59"/>
-      <c r="E60" s="165">
+      <c r="E60" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -10574,7 +10626,7 @@
         <v>58</v>
       </c>
       <c r="P60" s="59"/>
-      <c r="Q60" s="164">
+      <c r="Q60" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -10602,7 +10654,7 @@
         <v>58</v>
       </c>
       <c r="AB60" s="59"/>
-      <c r="AC60" s="164">
+      <c r="AC60" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -10635,7 +10687,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="91"/>
-      <c r="E61" s="165">
+      <c r="E61" s="118">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
@@ -10663,7 +10715,7 @@
         <v>58</v>
       </c>
       <c r="P61" s="91"/>
-      <c r="Q61" s="164">
+      <c r="Q61" s="117">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -10691,7 +10743,7 @@
         <v>58</v>
       </c>
       <c r="AB61" s="91"/>
-      <c r="AC61" s="164">
+      <c r="AC61" s="117">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -10822,7 +10874,7 @@
         <v>58</v>
       </c>
       <c r="D64" s="51"/>
-      <c r="E64" s="165">
+      <c r="E64" s="118">
         <f t="shared" ref="E64:E78" si="31">COUNTIF(C64,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -10850,7 +10902,7 @@
         <v>58</v>
       </c>
       <c r="P64" s="51"/>
-      <c r="Q64" s="164">
+      <c r="Q64" s="117">
         <f t="shared" ref="Q64:Q78" si="33">COUNTIF(O64,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -10878,7 +10930,7 @@
         <v>58</v>
       </c>
       <c r="AB64" s="51"/>
-      <c r="AC64" s="164">
+      <c r="AC64" s="117">
         <f t="shared" ref="AC64:AC78" si="35">COUNTIF(AA64,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -10911,7 +10963,7 @@
         <v>58</v>
       </c>
       <c r="D65" s="59"/>
-      <c r="E65" s="165">
+      <c r="E65" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -10939,7 +10991,7 @@
         <v>58</v>
       </c>
       <c r="P65" s="59"/>
-      <c r="Q65" s="164">
+      <c r="Q65" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -10967,7 +11019,7 @@
         <v>58</v>
       </c>
       <c r="AB65" s="59"/>
-      <c r="AC65" s="164">
+      <c r="AC65" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11000,7 +11052,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="59"/>
-      <c r="E66" s="165">
+      <c r="E66" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -11028,7 +11080,7 @@
         <v>58</v>
       </c>
       <c r="P66" s="59"/>
-      <c r="Q66" s="164">
+      <c r="Q66" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -11056,7 +11108,7 @@
         <v>58</v>
       </c>
       <c r="AB66" s="59"/>
-      <c r="AC66" s="164">
+      <c r="AC66" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11089,7 +11141,7 @@
         <v>58</v>
       </c>
       <c r="D67" s="59"/>
-      <c r="E67" s="165">
+      <c r="E67" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -11117,7 +11169,7 @@
         <v>58</v>
       </c>
       <c r="P67" s="59"/>
-      <c r="Q67" s="164">
+      <c r="Q67" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -11145,7 +11197,7 @@
         <v>58</v>
       </c>
       <c r="AB67" s="59"/>
-      <c r="AC67" s="164">
+      <c r="AC67" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11178,7 +11230,7 @@
         <v>58</v>
       </c>
       <c r="D68" s="59"/>
-      <c r="E68" s="165">
+      <c r="E68" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -11206,7 +11258,7 @@
         <v>58</v>
       </c>
       <c r="P68" s="59"/>
-      <c r="Q68" s="164">
+      <c r="Q68" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -11234,7 +11286,7 @@
         <v>58</v>
       </c>
       <c r="AB68" s="59"/>
-      <c r="AC68" s="164">
+      <c r="AC68" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11308,7 +11360,7 @@
         <v>58</v>
       </c>
       <c r="D70" s="59"/>
-      <c r="E70" s="165">
+      <c r="E70" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -11336,7 +11388,7 @@
         <v>58</v>
       </c>
       <c r="P70" s="59"/>
-      <c r="Q70" s="164">
+      <c r="Q70" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -11364,7 +11416,7 @@
         <v>58</v>
       </c>
       <c r="AB70" s="59"/>
-      <c r="AC70" s="164">
+      <c r="AC70" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11397,7 +11449,7 @@
         <v>58</v>
       </c>
       <c r="D71" s="51"/>
-      <c r="E71" s="165">
+      <c r="E71" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -11425,7 +11477,7 @@
         <v>58</v>
       </c>
       <c r="P71" s="51"/>
-      <c r="Q71" s="164">
+      <c r="Q71" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -11453,7 +11505,7 @@
         <v>58</v>
       </c>
       <c r="AB71" s="51"/>
-      <c r="AC71" s="164">
+      <c r="AC71" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11486,7 +11538,7 @@
         <v>58</v>
       </c>
       <c r="D72" s="59"/>
-      <c r="E72" s="165">
+      <c r="E72" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -11514,7 +11566,7 @@
         <v>58</v>
       </c>
       <c r="P72" s="59"/>
-      <c r="Q72" s="164">
+      <c r="Q72" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -11542,7 +11594,7 @@
         <v>58</v>
       </c>
       <c r="AB72" s="59"/>
-      <c r="AC72" s="164">
+      <c r="AC72" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11575,7 +11627,7 @@
         <v>58</v>
       </c>
       <c r="D73" s="59"/>
-      <c r="E73" s="165">
+      <c r="E73" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -11603,7 +11655,7 @@
         <v>58</v>
       </c>
       <c r="P73" s="59"/>
-      <c r="Q73" s="164">
+      <c r="Q73" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -11631,7 +11683,7 @@
         <v>58</v>
       </c>
       <c r="AB73" s="59"/>
-      <c r="AC73" s="164">
+      <c r="AC73" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11664,7 +11716,7 @@
         <v>58</v>
       </c>
       <c r="D74" s="105"/>
-      <c r="E74" s="165">
+      <c r="E74" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -11692,7 +11744,7 @@
         <v>58</v>
       </c>
       <c r="P74" s="105"/>
-      <c r="Q74" s="164">
+      <c r="Q74" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -11720,7 +11772,7 @@
         <v>58</v>
       </c>
       <c r="AB74" s="105"/>
-      <c r="AC74" s="164">
+      <c r="AC74" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11753,7 +11805,7 @@
         <v>58</v>
       </c>
       <c r="D75" s="107"/>
-      <c r="E75" s="165">
+      <c r="E75" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -11781,7 +11833,7 @@
         <v>58</v>
       </c>
       <c r="P75" s="107"/>
-      <c r="Q75" s="164">
+      <c r="Q75" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -11809,7 +11861,7 @@
         <v>58</v>
       </c>
       <c r="AB75" s="107"/>
-      <c r="AC75" s="164">
+      <c r="AC75" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11883,7 +11935,7 @@
         <v>58</v>
       </c>
       <c r="D77" s="51"/>
-      <c r="E77" s="165">
+      <c r="E77" s="118">
         <f>COUNTIF(C77,"&lt;=1),""0")</f>
         <v>1</v>
       </c>
@@ -11911,7 +11963,7 @@
         <v>58</v>
       </c>
       <c r="P77" s="51"/>
-      <c r="Q77" s="164">
+      <c r="Q77" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -11939,7 +11991,7 @@
         <v>58</v>
       </c>
       <c r="AB77" s="51"/>
-      <c r="AC77" s="164">
+      <c r="AC77" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -11972,7 +12024,7 @@
         <v>58</v>
       </c>
       <c r="D78" s="59"/>
-      <c r="E78" s="165">
+      <c r="E78" s="118">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
@@ -12000,7 +12052,7 @@
         <v>58</v>
       </c>
       <c r="P78" s="59"/>
-      <c r="Q78" s="164">
+      <c r="Q78" s="117">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -12028,7 +12080,7 @@
         <v>58</v>
       </c>
       <c r="AB78" s="59"/>
-      <c r="AC78" s="164">
+      <c r="AC78" s="117">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -49061,26 +49113,26 @@
     <mergeCell ref="AA9:AK9"/>
   </mergeCells>
   <conditionalFormatting sqref="K14:K19 W14:X19 AI14:AJ19 K21:K24 W21:X24 AI21:AJ24 K26:K29 W26:X29 AI26:AJ29 K31:K35 W31:X35 AI31:AJ35 K37:K45 W37:X45 AI37:AJ45 K47:K56 W47:X56 AI47:AJ56 K58:K61 W58:X61 AI58:AJ61 K64:K68 W64:X68 AI64:AJ68 K70:K75 W70:X75 AI70:AJ75 K77:K78 W77:X78 AI77:AJ78">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Exception">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Exception">
       <formula>NOT(ISERROR(SEARCH(("Exception"),(K14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K19 W14:X19 AI14:AJ19 K21:K24 W21:X24 AI21:AJ24 K26:K29 W26:X29 AI26:AJ29 K31:K35 W31:X35 AI31:AJ35 K37:K45 W37:X45 AI37:AJ45 K47:K56 W47:X56 AI47:AJ56 K58:K61 W58:X61 AI58:AJ61 K64:K68 W64:X68 AI64:AJ68 K70:K75 W70:X75 AI70:AJ75 K77:K78 W77:X78 AI77:AJ78">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Acceptable">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Acceptable">
       <formula>NOT(ISERROR(SEARCH(("Acceptable"),(K14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K19 W14:X19 AI14:AJ19 K21:K24 W21:X24 AI21:AJ24 K26:K29 W26:X29 AI26:AJ29 K31:K35 W31:X35 AI31:AJ35 K37:K45 W37:X45 AI37:AJ45 K47:K56 W47:X56 AI47:AJ56 K58:K61 W58:X61 AI58:AJ61 K64:K68 W64:X68 AI64:AJ68 K70:K75 W70:X75 AI70:AJ75 K77:K78 W77:X78 AI77:AJ78">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Optimum">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Optimum">
       <formula>NOT(ISERROR(SEARCH(("Optimum"),(K14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12 W12:X12 AI12:AJ12 K14:K19 W14:X19 AI14:AJ19 K21:K24 W21:X24 AI21:AJ24 K26:K29 W26:X29 AI26:AJ29 K31:K35 W31:X35 AI31:AJ35 K37:K45 W37:X45 AI37:AJ45 K47:K56 W47:X56 AI47:AJ56 K58:K62 W58:X61 AI58:AJ61 K64:K68 W64:X68 AI64:AJ68 K70:K75 W70:X75 AI70:AJ75 K77:K78 W77:X78 AI77:AJ78 K124:K1026 W124:X1026 AI124:AJ1026">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(K12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="52">
+  <dataValidations count="49">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C49 O49 AA49" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"0. Selection Required,1. ≥12kw,2. ≥8kw,3. &lt; 8kW (Notes required)"</formula1>
     </dataValidation>
@@ -49186,9 +49238,6 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C48 O48 AA48" xr:uid="{00000000-0002-0000-0200-000023000000}">
       <formula1>"0. Selection Required,1. Hot aisle containment or rack chimney,2. Hot/Cold aisle containment for all cabinets in white space,3. Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C17 O17 AA17" xr:uid="{00000000-0002-0000-0200-000024000000}">
-      <formula1>"0. Selection Required,1. ≥680kg (1500lb) (6.67kN),2. ≥567kg (1250lb) (5.56kN),2. ≥459kg (1012lb) (4.5kN) (notes required),2. &lt;459kg (1012lb) (4.5kN) (notes required)"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C55 O55 AA55" xr:uid="{00000000-0002-0000-0200-000025000000}">
       <formula1>"0. Selection Required,1. ≥12 Deg C DeltaT,2. ≥8 Deg C DeltaT,3. &lt;8 Deg C DeltaT"</formula1>
     </dataValidation>
@@ -49231,15 +49280,57 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C45 O45 AA45" xr:uid="{00000000-0002-0000-0200-000033000000}">
       <formula1>"0. Selection Required,1. &lt;60 seconds,2. &lt;90 seconds,3. &gt;90 seconds"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C15 O15 AA15" xr:uid="{EE22CEE3-B35F-4F7F-A25A-E057CF18227E}">
-      <formula1>"0. Selection Required,1. ≥2.7m (108in) H x ≥2.4m (96in) W x ≥2.4m (96in) D,2. ≥2.7m (108in) H x ≥1.2m (48in) W, 2.≥2.3m (90in) H  x ≥ .9m (36in) W "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C16 O16 AA16" xr:uid="{79A60298-9904-449B-9922-764606935CB0}">
-      <formula1>" 0. Selection Required,1. ≥2.4m (96in) H x ≥1.8m (72in) W unobstructed access and threshold free,2. ≥2.4m (96in) H x ≥1.8m (72in) W with threshold (notes required),2. ≥2.3m (90in) H x ≥.9m (36in) W unobstructed access and threshold free"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000024000000}">
+          <x14:formula1>
+            <xm:f>Dropdown!$B$33:$B$37</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{C0E075EE-2AF4-43D2-8149-E28D3D07945E}">
+          <x14:formula1>
+            <xm:f>Dropdown!$B$16:$B$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{56E2F341-A208-4F39-BF69-4CE3BB7BCC93}">
+          <x14:formula1>
+            <xm:f>Dropdown!$B$25:$B$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{9042F461-4B61-4460-A187-1F83F8AE53D5}">
+          <x14:formula1>
+            <xm:f>Dropdown!$B$16:$B$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15 O15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{D84A0B7F-DBEC-47AE-A2CA-6ACEC977FF79}">
+          <x14:formula1>
+            <xm:f>Dropdown!$B$25:$B$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>C16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{51EAFC4B-4569-4119-9E55-57C3C7A69FCD}">
+          <x14:formula1>
+            <xm:f>Dropdown!$B$33:$B$37</xm:f>
+          </x14:formula1>
+          <xm:sqref>C17 O17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{C422FE30-2E1D-4B15-8D34-13DC452917F4}">
+          <x14:formula1>
+            <xm:f>Dropdown!$B$25:$B$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>O16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -49248,26 +49339,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="str">
         <f ca="1">TEXT(B1,"mm/dd/yyyy")</f>
-        <v>03/29/2021</v>
+        <v>04/19/2021</v>
       </c>
       <c r="B1" s="113">
         <f ca="1">TODAY()</f>
-        <v>44284</v>
+        <v>44305</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -49289,106 +49381,155 @@
     <row r="5" spans="1:2">
       <c r="A5" t="str">
         <f ca="1">CONCATENATE("Approved:Bill Carter, ",$A$1)</f>
-        <v>Approved:Bill Carter, 03/29/2021</v>
+        <v>Approved:Bill Carter, 04/19/2021</v>
       </c>
       <c r="B5" t="str">
-        <f ca="1">CONCATENATE("Approved:Rob Coyle, ",$A$1)</f>
-        <v>Approved:Rob Coyle, 03/29/2021</v>
+        <f ca="1">CONCATENATE("Approved:Bret Lehman, ",$A$1)</f>
+        <v>Approved:Bret Lehman, 04/19/2021</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="str">
         <f ca="1">CONCATENATE("Approved:Archna Haylock, ",$A$1)</f>
-        <v>Approved:Archna Haylock, 03/29/2021</v>
+        <v>Approved:Archna Haylock, 04/19/2021</v>
       </c>
       <c r="B6" t="str">
         <f ca="1">CONCATENATE("Approved:Anand Ramesh, ",$A$1)</f>
-        <v>Approved:Anand Ramesh, 03/29/2021</v>
+        <v>Approved:Anand Ramesh, 04/19/2021</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="str">
         <f ca="1">CONCATENATE("Approved:Michael Schill, ",$A$1)</f>
-        <v>Approved:Michael Schill, 03/29/2021</v>
+        <v>Approved:Michael Schill, 04/19/2021</v>
       </c>
       <c r="B7" t="str">
-        <f ca="1">CONCATENATE("Approved:Brevan Reyher, ",$A$1)</f>
-        <v>Approved:Brevan Reyher, 03/29/2021</v>
+        <f ca="1">CONCATENATE("Approved:Justin Steadman, ",$A$1)</f>
+        <v>Approved:Justin Steadman, 04/19/2021</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="str">
         <f ca="1">CONCATENATE("Approved:Steve Helvie, ",$A$1)</f>
-        <v>Approved:Steve Helvie, 03/29/2021</v>
+        <v>Approved:Steve Helvie, 04/19/2021</v>
       </c>
       <c r="B8" t="str">
         <f ca="1">CONCATENATE("Approved:Mark Dansie, ",$A$1)</f>
-        <v>Approved:Mark Dansie, 03/29/2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="str">
-        <f ca="1">CONCATENATE("MISSING DATA:Bill Carter, ",$A$1)</f>
-        <v>MISSING DATA:Bill Carter, 03/29/2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="str">
-        <f ca="1">CONCATENATE("MISSING DATA:Archna Haylock, ",$A$1)</f>
-        <v>MISSING DATA:Archna Haylock, 03/29/2021</v>
-      </c>
-      <c r="B11" t="str">
-        <f ca="1">CONCATENATE("MISSING DATA:Rob Coyle, ",$A$1)</f>
-        <v>MISSING DATA:Rob Coyle, 03/29/2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="str">
-        <f ca="1">CONCATENATE("MISSING DATA:Michael Schill, ",$A$1)</f>
-        <v>MISSING DATA:Michael Schill, 03/29/2021</v>
-      </c>
-      <c r="B12" t="str">
-        <f ca="1">CONCATENATE("MISSING DATA:Anand Ramesh, ",$A$1)</f>
-        <v>MISSING DATA:Anand Ramesh, 03/29/2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="str">
-        <f ca="1">CONCATENATE("MISSING DATA:Steve Helvie, ",$A$1)</f>
-        <v>MISSING DATA:Steve Helvie, 03/29/2021</v>
-      </c>
-      <c r="B13" t="str">
-        <f ca="1">CONCATENATE("MISSING DATA:Brevan Reyher, ",$A$1)</f>
-        <v>MISSING DATA:Brevan Reyher, 03/29/2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="str">
-        <f ca="1">CONCATENATE("MISSING DATA:Mark Dansie, ",$A$1)</f>
-        <v>MISSING DATA:Mark Dansie, 03/29/2021</v>
+        <v>Approved:Mark Dansie, 04/19/2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1">
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15" customHeight="1">
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15" customHeight="1">
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" customHeight="1">
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15" customHeight="1">
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15" customHeight="1">
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15" customHeight="1">
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15" customHeight="1">
+      <c r="B24" s="128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15" customHeight="1">
+      <c r="B25" s="128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15" customHeight="1">
+      <c r="B26" s="128" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="15" customHeight="1">
+      <c r="B27" s="128" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="15" customHeight="1">
+      <c r="B28" s="128" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="15" customHeight="1">
+      <c r="B29" s="128" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="15" customHeight="1">
+      <c r="B30" s="128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15" customHeight="1">
+      <c r="B32" s="128" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15" customHeight="1">
+      <c r="B33" s="128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15" customHeight="1">
+      <c r="B34" s="128" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="15" customHeight="1">
+      <c r="B35" s="128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15" customHeight="1">
+      <c r="B36" s="128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="15" customHeight="1">
+      <c r="B37" s="128" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100730A767F76A5FA43BB1F54207780F04F" ma:contentTypeVersion="7" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="e96face52edcd7a8ddc4f739009b6e32">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ff17216b-e513-4f66-b2e1-a9a22ce7d24f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0e0bc16b184811b04c6333f45cea9e1" ns3:_="">
     <xsd:import namespace="ff17216b-e513-4f66-b2e1-a9a22ce7d24f"/>
@@ -49552,24 +49693,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C97CA73-B23F-489D-B1E1-71DD88E81286}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C21E58F-9BD5-44A0-B211-A3D16D8BB7FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E5D7E52-C707-46AF-B8DA-59BCC7029363}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49585,4 +49724,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C97CA73-B23F-489D-B1E1-71DD88E81286}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C21E58F-9BD5-44A0-B211-A3D16D8BB7FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>